--- a/footfall_2015_16.xlsx
+++ b/footfall_2015_16.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28140" windowHeight="16220" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28140" windowHeight="16220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="1" r:id="rId1"/>
@@ -19868,7 +19868,7 @@
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
